--- a/biology/Zoologie/Cantharidae/Cantharidae.xlsx
+++ b/biology/Zoologie/Cantharidae/Cantharidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cantharidae ou Cantharidés sont une famille de coléoptères, proches de la famille des Lampyridae (comprenant les Lampyres et les Lucioles), mais qui ne sont pas en mesure de produire de la lumière. Ils sont cosmopolites de par leur domaine de distribution[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cantharidae ou Cantharidés sont une famille de coléoptères, proches de la famille des Lampyridae (comprenant les Lampyres et les Lucioles), mais qui ne sont pas en mesure de produire de la lumière. Ils sont cosmopolites de par leur domaine de distribution.
 Historiquement, ces coléoptères ont d'abord été placés dans une super-famille : les "Cantharoidea", qui a été englobée par la super-famille des Elateroidea, le nom est encore parfois utilisé pour regrouper les familles des Cantharidae, Drilidae, Lampyridae, Lycidae, Omalisidae, Omethidae, Phengodidae (qui comprend les Telegeusidae) et Rhagophthalmidae.
 Insectes butineurs et pollinisateurs, leur population peut être augmentée par la plantation de plantes à nectar telles que les Solidago ou les Asclepias.
 </t>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur taille varie généralement entre 1-15 mm. Les cantharides ont un corps allongé aux côtés droits et aplatis. Leur cuticule est douce et relativement molle au toucher. Les yeux sont bien visibles et ils possèdent de longues antennes segmentées en onze parties. La femelle a sept segments abdominaux et le mâle en a huit[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur taille varie généralement entre 1-15 mm. Les cantharides ont un corps allongé aux côtés droits et aplatis. Leur cuticule est douce et relativement molle au toucher. Les yeux sont bien visibles et ils possèdent de longues antennes segmentées en onze parties. La femelle a sept segments abdominaux et le mâle en a huit.
 </t>
         </is>
       </c>
@@ -546,18 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cycle de vie
-Ces insectes ont un développement holométabole.
-Adulte
-Les adultes sont des prédateurs d'insectes et d'autres invertébrés. Plusieurs espèces ont été observées s'attaquant à des colonies de pucerons. Ils s'alimentent également du nectar et du pollen des fleurs[3],[4]. La biologie de la plupart des espèces de Cantharidae est mal connue.
-En Amérique du Nord, la plupart des espèces émergent au printemps ou en été. Les adultes ne vivent pas longtemps. Ils sont particulièrement actifs pendant la journée lorsque les températures ne sont pas trop chaudes[2]. De nombreuses espèces sont actives durant la nuit[5].
-Larves
-Les larves ont généralement une apparence de velours à la coloration brun foncé ou grise. Elles ressemblent à des vers avec une apparence ridée en raison de la segmentation. Elles consomment des œufs de sauterelles, des pucerons, des chenilles et autres insectes à corps mou dont la plupart sont des ravageurs.
-Chez certaines espèces, les larves se retrouvent sur les feuillages où elles se nourrissent de petits invertébrés. Chez d'autres, elles se retrouvent sur le sol ou dans le sol[6] et se nourrissent de vers de terre, de larves de diptères ou de lépidoptères[7].
-Nymphe
-Chez certaines espèces, la larve s'enfouit dans le sol et se construit une petite cavité circulaire pour entamer sa transformation en nymphe. La nymphe ressemble à l'adulte et est généralement de couleur pâle, avec les pattes et les antennes recroquevillées sur son corps. Elle est restreinte en mouvement, souvent immobile et n'a pas de mandibule. C'est donc un stade très sensible pour la prédation. La durée du stade nymphal peut varier selon les espèces et les conditions environnementales.
-Rôles écologiques
-Ce sont des coléoptères vivement appréciés par les jardiniers comme agents de lutte biologique contre un certain nombre d'insectes ravageurs. De plus, les adultes peuvent contribuer à la pollinisation de certaines plantes[8].
+          <t>Cycle de vie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces insectes ont un développement holométabole.
 </t>
         </is>
       </c>
@@ -583,12 +592,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Comportements</t>
+          <t>Écologie et développement</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les adultes et les larves ont développé un système efficace de défense chimique contre les prédateurs[9]. Ils possèdent des glandes qui sécrètent une substance répulsive mauvaise au goût qui les rendent beaucoup moins appétissants[2].
+          <t>Cycle de vie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Adulte</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes sont des prédateurs d'insectes et d'autres invertébrés. Plusieurs espèces ont été observées s'attaquant à des colonies de pucerons. Ils s'alimentent également du nectar et du pollen des fleurs,. La biologie de la plupart des espèces de Cantharidae est mal connue.
+En Amérique du Nord, la plupart des espèces émergent au printemps ou en été. Les adultes ne vivent pas longtemps. Ils sont particulièrement actifs pendant la journée lorsque les températures ne sont pas trop chaudes. De nombreuses espèces sont actives durant la nuit.
 </t>
         </is>
       </c>
@@ -614,12 +634,23 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Répartition et distribution</t>
+          <t>Écologie et développement</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">On retrouve plus de 5000 espèces de Cantharidae dans le monde[10]. En Amérique du Nord, on retrouve près de 475 espèces divisées en 25 genres[11].
+          <t>Cycle de vie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Larves</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les larves ont généralement une apparence de velours à la coloration brun foncé ou grise. Elles ressemblent à des vers avec une apparence ridée en raison de la segmentation. Elles consomment des œufs de sauterelles, des pucerons, des chenilles et autres insectes à corps mou dont la plupart sont des ravageurs.
+Chez certaines espèces, les larves se retrouvent sur les feuillages où elles se nourrissent de petits invertébrés. Chez d'autres, elles se retrouvent sur le sol ou dans le sol et se nourrissent de vers de terre, de larves de diptères ou de lépidoptères.
 </t>
         </is>
       </c>
@@ -645,12 +676,158 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et développement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cycle de vie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nymphe</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez certaines espèces, la larve s'enfouit dans le sol et se construit une petite cavité circulaire pour entamer sa transformation en nymphe. La nymphe ressemble à l'adulte et est généralement de couleur pâle, avec les pattes et les antennes recroquevillées sur son corps. Elle est restreinte en mouvement, souvent immobile et n'a pas de mandibule. C'est donc un stade très sensible pour la prédation. La durée du stade nymphal peut varier selon les espèces et les conditions environnementales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cantharidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et développement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Rôles écologiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des coléoptères vivement appréciés par les jardiniers comme agents de lutte biologique contre un certain nombre d'insectes ravageurs. De plus, les adultes peuvent contribuer à la pollinisation de certaines plantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cantharidae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharidae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Comportements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes et les larves ont développé un système efficace de défense chimique contre les prédateurs. Ils possèdent des glandes qui sécrètent une substance répulsive mauvaise au goût qui les rendent beaucoup moins appétissants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cantharidae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharidae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Répartition et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve plus de 5000 espèces de Cantharidae dans le monde. En Amérique du Nord, on retrouve près de 475 espèces divisées en 25 genres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cantharidae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharidae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification est sujette aux changements. Les informations présentées ont été compilées à partir de plusieurs ouvrages et de sites d'informations scientifiques[12],[10].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification est sujette aux changements. Les informations présentées ont été compilées à partir de plusieurs ouvrages et de sites d'informations scientifiques,.
 Sous-famille Cantharinae
 Tribe Cantharini Imhoff, 1865
 Ancistronycha Märkel, 1851
